--- a/biology/Botanique/Peniophoraceae/Peniophoraceae.xlsx
+++ b/biology/Botanique/Peniophoraceae/Peniophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Peniophoraceae sont une famille de champignons basidiomycètes de l'ordre des Russulales.
-Les espèces de cette famille ont une distribution cosmopolite. Elles sont surtout saprophytes, décomposant le bois mort (debout ou tombé)[1].
+Les espèces de cette famille ont une distribution cosmopolite. Elles sont surtout saprophytes, décomposant le bois mort (debout ou tombé).
 </t>
         </is>
       </c>
@@ -512,11 +524,49 @@
           <t>Systématique et taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon une estimation de 2008, la famille comprend 7 genres et 88 espèces.[réf. nécessaire]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une estimation de 2008, la famille comprend 7 genres et 88 espèces.[réf. nécessaire]
 Peniophoraceae Lotsy (1907)
-Position des Peniophoraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique et taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Position des Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 Russulales
 Stereaceae
@@ -527,8 +577,43 @@
 Auriscalpiaceae
 Gloeodontia
 Amylostereaceae
-Peniophoraceae
-Phylogramme détaillé des Peniophoraceae
+Peniophoraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique et taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogramme détaillé des Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 Russulales
 Russulaceae
@@ -544,8 +629,43 @@
 Vararia
 Asterostroma
 Vesiculomyces
-Gloiothele
-Liste des genres linnéens
+Gloiothele</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peniophoraceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique et taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres linnéens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Peniophoraceae
  Amylofungus
 Amylofungus corrosus
@@ -575,31 +695,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Peniophoraceae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Peniophoraceae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
